--- a/roll number.xlsx
+++ b/roll number.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
     <t>序号</t>
   </si>
@@ -56,6 +56,27 @@
   </si>
   <si>
     <t>渠道引流</t>
+  </si>
+  <si>
+    <t>马克思</t>
+  </si>
+  <si>
+    <t>123445</t>
+  </si>
+  <si>
+    <t>海南外国语职业学院</t>
+  </si>
+  <si>
+    <t>司机</t>
+  </si>
+  <si>
+    <t>贝尔</t>
+  </si>
+  <si>
+    <t>9990009</t>
+  </si>
+  <si>
+    <t>保姆</t>
   </si>
 </sst>
 </file>
@@ -398,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F4"/>
+  <dimension ref="A2:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
@@ -471,6 +492,106 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
